--- a/biology/Botanique/Cyathomonadaceae/Cyathomonadaceae.xlsx
+++ b/biology/Botanique/Cyathomonadaceae/Cyathomonadaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cyathomonadaceae sont une famille d'algues de l'embranchement des Cryptista, de la classe des Cryptophyceae et de l’ordre des Cryptomonadales.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Cyathomonas, dérivé du grec κύαθος / kýathos, « vase, coupe », et μονασ / monas, « seul, solitaire, isolé », littéralement « monade en forme de vase ».
 </t>
@@ -542,11 +556,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Fromentel décrit le genre  Cyathomonas comme suit : 
-« Le genre Cyathomonas, que nous avons créé pour plusieurs Microzoaires uni-flagellés, comprend des animalcules à corps cylindriques ou pyriformes, brusquement tronqués au sommet qui paraît largement évasé et donne à ces Infusoires l'apparence d'un verre ou d'un calice. Le flagellum semble sortir de la partie supérieure évasée, et la vésicule contractile est très visible dans la plupart des espèces. La multiplication se fait par division longitudinale[1]. »
-Engler et Prantl[2] semblent en faire une description plus complète, mais en fait ils décrivent et dessinent un Cyathomonas truncata (From.) Fresen. autrement nommé Monas truncata Fresen. ou Goniomonas truncata (Fresen.) F.Stein 1878, ce dernier n’étant plus classé dans les Cyathomonadaceae mais dans la famille des Goniomonadaceae.
+« Le genre Cyathomonas, que nous avons créé pour plusieurs Microzoaires uni-flagellés, comprend des animalcules à corps cylindriques ou pyriformes, brusquement tronqués au sommet qui paraît largement évasé et donne à ces Infusoires l'apparence d'un verre ou d'un calice. Le flagellum semble sortir de la partie supérieure évasée, et la vésicule contractile est très visible dans la plupart des espèces. La multiplication se fait par division longitudinale. »
+Engler et Prantl semblent en faire une description plus complète, mais en fait ils décrivent et dessinent un Cyathomonas truncata (From.) Fresen. autrement nommé Monas truncata Fresen. ou Goniomonas truncata (Fresen.) F.Stein 1878, ce dernier n’étant plus classé dans les Cyathomonadaceae mais dans la famille des Goniomonadaceae.
 </t>
         </is>
       </c>
@@ -576,6 +592,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -601,9 +619,11 @@
           <t>Liste des genres et des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon AlgaeBase                                           (29 août 2022)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon AlgaeBase                                           (29 août 2022) :
 Cyathomonas Fromentel, 1874
 Cyathomonas alba Fromentel, 1874
 Cyathomonas elongata Fromentel, 1874
@@ -613,7 +633,7 @@
 Cyathomonas turbinata Fromentel, 1874
 Cyathomonas turbo Fromentel, 1874 (= Cyathomonas truncata var. subrotunda Pascher, 1913
 Cyathomonas viridis Fromentel, 1874
-Le Cyathomonas truncata (Fresenius) Fisch 1885, est considéré comme un synonyme de l'espèce Goniomonas truncata (Fresenius) F.Stein 1878 classé dans l’ordre des Goniomonadales et la famille des Goniomonadaceae [3].
+Le Cyathomonas truncata (Fresenius) Fisch 1885, est considéré comme un synonyme de l'espèce Goniomonas truncata (Fresenius) F.Stein 1878 classé dans l’ordre des Goniomonadales et la famille des Goniomonadaceae .
 			Cyathomonas truncata (From.) Fresen.(d'après Engler et Prantl)
 </t>
         </is>
@@ -643,9 +663,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Cyathomonadaceae Pringsheim, 1944[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Cyathomonadaceae Pringsheim, 1944.
 </t>
         </is>
       </c>
